--- a/biology/Zoologie/Inséparable/Inséparable.xlsx
+++ b/biology/Zoologie/Inséparable/Inséparable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable</t>
+          <t>Inséparable</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agapornis
 Les inséparables (Agapornis sp.) sont de petits psittacidés vivant dans le sud de l'Afrique et à Madagascar.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable</t>
+          <t>Inséparable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les inséparables peuvent être subdivisés en trois groupes :
 les oiseaux présentant un net dimorphisme sexuel ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable</t>
+          <t>Inséparable</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les inséparables sont de petits perroquets vivant principalement dans le sud et le sud-est de l'Afrique.
-Naturalisation
-Une population férale de trois espèces d'inséparables est établie depuis 1992 à Saint-Jean-Cap-Ferrat et Beaulieu-sur-Mer sur la Côte d'Azur[1] ; parmi ces espèces, seuls les inséparables de Fischer se sont reproduits : ils sont donc inscrits en catégorie C de la liste des oiseaux de France.
-Caractéristiques
-Durée de vie : 12 à 15 ans
 </t>
         </is>
       </c>
@@ -562,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable</t>
+          <t>Inséparable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +589,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Répartition</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le terme « inséparable » tient au fait que les oiseaux de ce genre demeurent généralement en couples extrêmement liés. Selon une croyance répandue, si l'un des oiseaux meurt, l'autre se laisse mourir. En réalité, l'inséparable peut vivre seul[2], mais c'est un animal grégaire : il aime avant tout vivre en collectivité[3].   
+          <t>Naturalisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une population férale de trois espèces d'inséparables est établie depuis 1992 à Saint-Jean-Cap-Ferrat et Beaulieu-sur-Mer sur la Côte d'Azur ; parmi ces espèces, seuls les inséparables de Fischer se sont reproduits : ils sont donc inscrits en catégorie C de la liste des oiseaux de France.
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable</t>
+          <t>Inséparable</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durée de vie : 12 à 15 ans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Inséparable</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ins%C3%A9parable</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme « inséparable » tient au fait que les oiseaux de ce genre demeurent généralement en couples extrêmement liés. Selon une croyance répandue, si l'un des oiseaux meurt, l'autre se laisse mourir. En réalité, l'inséparable peut vivre seul, mais c'est un animal grégaire : il aime avant tout vivre en collectivité.   
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Inséparable</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ins%C3%A9parable</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 2.2, 2009) du Congrès ornithologique international (ordre phylogénique) :
 Agapornis canus – Inséparable à tête grise ;
